--- a/config/Datas/test/full_type.xlsx
+++ b/config/Datas/test/full_type.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban\config\Datas\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC7D62A-AC60-40EE-AE0A-8AFAE985FC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20625" windowHeight="13050"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
   <si>
     <t>##</t>
   </si>
@@ -287,20 +293,186 @@
   </si>
   <si>
     <t>测试别名,1,2,DemoE1,1,2,11</t>
+  </si>
+  <si>
+    <t>s1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test/a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test/b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>key1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>key2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>key3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>asdfa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>asdfa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>asdfa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>asdfa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>asdfa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdfa2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,155 +484,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,192 +518,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -662,312 +531,34 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1225,19 +816,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AH14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
@@ -1248,26 +839,26 @@
     <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="9" width="19.375" customWidth="1"/>
     <col min="12" max="12" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="20.375" customWidth="1"/>
-    <col min="23" max="23" width="14.125" customWidth="1"/>
-    <col min="33" max="33" width="11.5" customWidth="1"/>
-    <col min="34" max="34" width="28.75" customWidth="1"/>
+    <col min="17" max="17" width="11.375" customWidth="1"/>
+    <col min="24" max="24" width="14.125" customWidth="1"/>
+    <col min="25" max="25" width="20.375" customWidth="1"/>
+    <col min="26" max="26" width="14.125" customWidth="1"/>
+    <col min="36" max="36" width="11.5" customWidth="1"/>
+    <col min="37" max="37" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1"/>
       <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:34">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1316,50 +907,54 @@
       <c r="Q2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="V2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1384,35 +979,35 @@
       <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>41</v>
-      </c>
       <c r="AB3" t="s">
         <v>41</v>
       </c>
       <c r="AC3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AG3" t="s">
         <v>42</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
         <v>42</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AI3" t="s">
         <v>43</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -1420,7 +1015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>47</v>
       </c>
@@ -1431,7 +1026,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:34">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -1478,49 +1073,55 @@
         <v>53</v>
       </c>
       <c r="S6" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V6" t="s">
         <v>54</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>55</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>56</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AB6" t="s">
         <v>58</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AC6" t="s">
         <v>59</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
         <v>60</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AE6" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AF6" t="s">
         <v>62</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AG6" t="s">
         <v>63</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
         <v>64</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AI6" t="s">
         <v>65</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
         <v>66</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AK6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -1543,7 +1144,7 @@
         <v>2.5</v>
       </c>
       <c r="I7">
-        <v>19870421.1988082</v>
+        <v>19870421.198808201</v>
       </c>
       <c r="J7">
         <v>453234</v>
@@ -1567,49 +1168,55 @@
         <v>70</v>
       </c>
       <c r="S7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V7" t="s">
         <v>71</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>72</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>65</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AB7" t="s">
         <v>74</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AC7" t="s">
         <v>75</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
         <v>76</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AE7" t="s">
         <v>77</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AF7" t="s">
         <v>78</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AG7" t="s">
         <v>79</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AH7" t="s">
         <v>80</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AI7" t="s">
         <v>81</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
         <v>82</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AK7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:34">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>50</v>
       </c>
@@ -1656,49 +1263,55 @@
         <v>53</v>
       </c>
       <c r="S8" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V8" t="s">
         <v>54</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>55</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>56</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AB8" t="s">
         <v>58</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AC8" t="s">
         <v>59</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
         <v>60</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AE8" t="s">
         <v>61</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AF8" t="s">
         <v>62</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AG8" t="s">
         <v>63</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AH8" t="s">
         <v>64</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AI8" t="s">
         <v>65</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
         <v>66</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AK8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="2:34">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>50</v>
       </c>
@@ -1745,49 +1358,55 @@
         <v>53</v>
       </c>
       <c r="S9" t="s">
+        <v>94</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V9" t="s">
         <v>54</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>55</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>56</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="Y9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AB9" t="s">
         <v>58</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AC9" t="s">
         <v>59</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
         <v>60</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AE9" t="s">
         <v>61</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AF9" t="s">
         <v>62</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AG9" t="s">
         <v>63</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AH9" t="s">
         <v>64</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AI9" t="s">
         <v>65</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AJ9" t="s">
         <v>66</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AK9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="2:34">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -1834,49 +1453,55 @@
         <v>53</v>
       </c>
       <c r="S10" t="s">
+        <v>95</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V10" t="s">
         <v>54</v>
       </c>
-      <c r="T10" t="s">
+      <c r="W10" t="s">
         <v>55</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>56</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AB10" t="s">
         <v>58</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AC10" t="s">
         <v>59</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
         <v>60</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AE10" t="s">
         <v>61</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AF10" t="s">
         <v>62</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AG10" t="s">
         <v>63</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AH10" t="s">
         <v>64</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AI10" t="s">
         <v>65</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AJ10" t="s">
         <v>66</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AK10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="2:34">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>50</v>
       </c>
@@ -1922,50 +1547,51 @@
       <c r="Q11" t="s">
         <v>53</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" s="3"/>
+      <c r="V11" t="s">
         <v>54</v>
       </c>
-      <c r="T11" t="s">
+      <c r="W11" t="s">
         <v>55</v>
       </c>
-      <c r="U11" t="s">
+      <c r="X11" t="s">
         <v>56</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AB11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AC11" t="s">
         <v>59</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
         <v>60</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AE11" t="s">
         <v>61</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AF11" t="s">
         <v>62</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AG11" t="s">
         <v>63</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AH11" t="s">
         <v>64</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AI11" t="s">
         <v>65</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AJ11" t="s">
         <v>66</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AK11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="2:34">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -2011,50 +1637,51 @@
       <c r="Q12" t="s">
         <v>53</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" s="3"/>
+      <c r="V12" t="s">
         <v>54</v>
       </c>
-      <c r="T12" t="s">
+      <c r="W12" t="s">
         <v>55</v>
       </c>
-      <c r="U12" t="s">
+      <c r="X12" t="s">
         <v>56</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AB12" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AC12" t="s">
         <v>59</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
         <v>60</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AE12" t="s">
         <v>61</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AF12" t="s">
         <v>62</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AG12" t="s">
         <v>63</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AH12" t="s">
         <v>64</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AI12" t="s">
         <v>65</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AJ12" t="s">
         <v>66</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AK12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="2:34">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>50</v>
       </c>
@@ -2101,49 +1728,55 @@
         <v>53</v>
       </c>
       <c r="S13" t="s">
+        <v>96</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V13" t="s">
         <v>54</v>
       </c>
-      <c r="T13" t="s">
+      <c r="W13" t="s">
         <v>55</v>
       </c>
-      <c r="U13" t="s">
+      <c r="X13" t="s">
         <v>56</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AB13" t="s">
         <v>58</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AC13" t="s">
         <v>59</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
         <v>60</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AE13" t="s">
         <v>61</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AF13" t="s">
         <v>62</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AG13" t="s">
         <v>63</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AH13" t="s">
         <v>64</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AI13" t="s">
         <v>65</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AJ13" t="s">
         <v>66</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AK13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="2:34">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>50</v>
       </c>
@@ -2190,51 +1823,60 @@
         <v>53</v>
       </c>
       <c r="S14" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="V14" t="s">
         <v>54</v>
       </c>
-      <c r="T14" t="s">
+      <c r="W14" t="s">
         <v>55</v>
       </c>
-      <c r="U14" t="s">
+      <c r="X14" t="s">
         <v>56</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AB14" t="s">
         <v>58</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AC14" t="s">
         <v>59</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
         <v>60</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AE14" t="s">
         <v>61</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AF14" t="s">
         <v>62</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AG14" t="s">
         <v>63</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AH14" t="s">
         <v>64</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AI14" t="s">
         <v>65</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AJ14" t="s">
         <v>66</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AK14" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/Datas/test/full_type.xlsx
+++ b/config/Datas/test/full_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban\config\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC7D62A-AC60-40EE-AE0A-8AFAE985FC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CE6A64-398F-44D7-B4FB-EA85E08FA9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="105">
   <si>
     <t>##</t>
   </si>
@@ -822,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1871,6 +1871,101 @@
         <v>90</v>
       </c>
     </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15">
+        <v>13234234234</v>
+      </c>
+      <c r="H15">
+        <v>1.28</v>
+      </c>
+      <c r="I15">
+        <v>1.23457891</v>
+      </c>
+      <c r="J15">
+        <v>1234</v>
+      </c>
+      <c r="K15">
+        <v>1234</v>
+      </c>
+      <c r="L15">
+        <v>111111111</v>
+      </c>
+      <c r="M15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15">
+        <v>1988</v>
+      </c>
+      <c r="P15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>53</v>
+      </c>
+      <c r="S15" t="s">
+        <v>97</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="V15" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" t="s">
+        <v>55</v>
+      </c>
+      <c r="X15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="S2:T2"/>
